--- a/REGULAR/FERMA, ARCELI.xlsx
+++ b/REGULAR/FERMA, ARCELI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E297B144-CF0D-48A4-9CB8-828F27F446E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D91B8-45BD-493E-88FC-8083B8609AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>11/16,23</t>
+  </si>
+  <si>
+    <t>4/3,14,17/2023</t>
   </si>
 </sst>
 </file>
@@ -4103,9 +4106,9 @@
   <dimension ref="A2:K600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4032" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="D9:I9"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="A8:K8"/>
+      <pane ySplit="4032" topLeftCell="A545" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4268,7 +4271,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>127.32900000000001</v>
+        <v>128.57900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4278,7 +4281,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269.875</v>
+        <v>267.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12319,7 +12322,7 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269.875</v>
+        <v>267.125</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
@@ -16580,25 +16583,35 @@
       <c r="A550" s="40">
         <v>44986</v>
       </c>
-      <c r="B550" s="20"/>
-      <c r="C550" s="13"/>
+      <c r="B550" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C550" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
-      <c r="G550" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H550" s="39"/>
+      <c r="G550" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H550" s="39">
+        <v>1</v>
+      </c>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="50">
+        <v>45015</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45017</v>
       </c>
-      <c r="B551" s="20"/>
+      <c r="B551" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
@@ -16607,10 +16620,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H551" s="39"/>
+      <c r="H551" s="39">
+        <v>3</v>
+      </c>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">

--- a/REGULAR/FERMA, ARCELI.xlsx
+++ b/REGULAR/FERMA, ARCELI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D91B8-45BD-493E-88FC-8083B8609AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369435A-0D7F-48D4-B455-02D22FF2EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>4/3,14,17/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -17509,7 +17512,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17605,6 +17608,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>429</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17626,6 +17632,10 @@
       <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>395.70400000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/FERMA, ARCELI.xlsx
+++ b/REGULAR/FERMA, ARCELI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369435A-0D7F-48D4-B455-02D22FF2EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="432">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1325,12 +1324,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>7/3-5/2023</t>
+  </si>
+  <si>
+    <t>7/6,10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2193,7 +2198,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2241,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2305,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2365,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2431,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2494,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2592,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2651,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2716,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2759,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2834,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3020,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3086,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3144,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3210,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3266,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3341,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3384,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3450,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3506,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3604,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3667,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,25 +3733,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K600" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K601" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3758,13 +3763,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3773,14 +3778,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4084,7 +4089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4094,7 +4099,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4102,34 +4107,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K600"/>
+  <dimension ref="A2:K601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4032" topLeftCell="A545" activePane="bottomLeft"/>
+      <pane ySplit="4035" topLeftCell="A545" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
+      <selection pane="bottomLeft" activeCell="G556" sqref="G556"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4150,7 +4155,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4170,7 +4175,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4192,7 +4197,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4200,7 +4205,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4213,7 +4218,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4230,7 +4235,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4274,7 +4279,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.57900000000001</v>
+        <v>132.32900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4284,12 +4289,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.125</v>
+        <v>267.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33619</v>
       </c>
@@ -4331,7 +4336,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>33635</v>
       </c>
@@ -4351,7 +4356,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>33664</v>
       </c>
@@ -4371,7 +4376,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>33695</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>33725</v>
       </c>
@@ -4411,7 +4416,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>33756</v>
       </c>
@@ -4431,7 +4436,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>33786</v>
       </c>
@@ -4451,7 +4456,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>33817</v>
       </c>
@@ -4471,7 +4476,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>33848</v>
       </c>
@@ -4491,7 +4496,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>33878</v>
       </c>
@@ -4511,7 +4516,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>33909</v>
       </c>
@@ -4531,7 +4536,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>33939</v>
       </c>
@@ -4555,7 +4560,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4582,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>33970</v>
       </c>
@@ -4597,7 +4602,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34001</v>
       </c>
@@ -4617,7 +4622,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34029</v>
       </c>
@@ -4637,7 +4642,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34060</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34090</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34121</v>
       </c>
@@ -4709,7 +4714,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34151</v>
       </c>
@@ -4729,7 +4734,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34182</v>
       </c>
@@ -4749,7 +4754,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34213</v>
       </c>
@@ -4773,7 +4778,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34243</v>
       </c>
@@ -4797,7 +4802,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34274</v>
       </c>
@@ -4821,7 +4826,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34304</v>
       </c>
@@ -4847,7 +4852,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -4869,7 +4874,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34335</v>
       </c>
@@ -4889,7 +4894,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34366</v>
       </c>
@@ -4909,7 +4914,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34394</v>
       </c>
@@ -4929,7 +4934,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34425</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34455</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34486</v>
       </c>
@@ -5001,7 +5006,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34516</v>
       </c>
@@ -5025,7 +5030,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34547</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>34556</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34578</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34608</v>
       </c>
@@ -5097,7 +5102,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34639</v>
       </c>
@@ -5117,7 +5122,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>34669</v>
       </c>
@@ -5137,7 +5142,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>54</v>
       </c>
@@ -5159,7 +5164,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>34700</v>
       </c>
@@ -5179,7 +5184,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>34731</v>
       </c>
@@ -5199,7 +5204,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>34759</v>
       </c>
@@ -5219,7 +5224,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>34790</v>
       </c>
@@ -5239,7 +5244,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>34820</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>55</v>
@@ -5287,7 +5292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>34851</v>
       </c>
@@ -5307,7 +5312,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>34881</v>
       </c>
@@ -5327,7 +5332,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>34912</v>
       </c>
@@ -5347,7 +5352,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>34943</v>
       </c>
@@ -5371,7 +5376,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>34973</v>
       </c>
@@ -5397,7 +5402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35004</v>
       </c>
@@ -5417,7 +5422,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35034</v>
       </c>
@@ -5437,7 +5442,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>53</v>
       </c>
@@ -5459,7 +5464,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35065</v>
       </c>
@@ -5479,7 +5484,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35096</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35125</v>
       </c>
@@ -5525,7 +5530,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35156</v>
       </c>
@@ -5545,7 +5550,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35186</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>46</v>
@@ -5593,7 +5598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>62</v>
@@ -5613,7 +5618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35217</v>
       </c>
@@ -5633,7 +5638,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35247</v>
       </c>
@@ -5653,7 +5658,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35278</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -5701,7 +5706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35309</v>
       </c>
@@ -5725,7 +5730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35339</v>
       </c>
@@ -5745,7 +5750,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35370</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35400</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>75</v>
       </c>
@@ -5813,7 +5818,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>35431</v>
       </c>
@@ -5833,7 +5838,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>35462</v>
       </c>
@@ -5853,7 +5858,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35490</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35521</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35551</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35582</v>
       </c>
@@ -5957,7 +5962,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35612</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>35643</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>35674</v>
       </c>
@@ -6023,7 +6028,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>35704</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35735</v>
       </c>
@@ -6069,7 +6074,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>35765</v>
       </c>
@@ -6091,7 +6096,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>88</v>
@@ -6111,7 +6116,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>76</v>
       </c>
@@ -6133,7 +6138,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>35796</v>
       </c>
@@ -6157,7 +6162,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35827</v>
       </c>
@@ -6181,7 +6186,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35855</v>
       </c>
@@ -6201,7 +6206,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35886</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35916</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6273,7 +6278,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>35947</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>35977</v>
       </c>
@@ -6319,7 +6324,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36008</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>94</v>
@@ -6365,7 +6370,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36039</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>96</v>
@@ -6409,7 +6414,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36069</v>
       </c>
@@ -6433,7 +6438,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36100</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36130</v>
       </c>
@@ -6485,7 +6490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>48</v>
@@ -6507,7 +6512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>101</v>
@@ -6527,7 +6532,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>77</v>
       </c>
@@ -6549,7 +6554,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36161</v>
       </c>
@@ -6573,7 +6578,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>36192</v>
       </c>
@@ -6597,7 +6602,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36220</v>
       </c>
@@ -6621,7 +6626,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36251</v>
       </c>
@@ -6647,7 +6652,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>106</v>
@@ -6669,7 +6674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>36281</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>66</v>
@@ -6717,7 +6722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>110</v>
@@ -6737,7 +6742,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36312</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36342</v>
       </c>
@@ -6787,7 +6792,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36373</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>114</v>
@@ -6833,7 +6838,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36404</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>115</v>
@@ -6879,7 +6884,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>36434</v>
       </c>
@@ -6903,7 +6908,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36465</v>
       </c>
@@ -6927,7 +6932,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>118</v>
@@ -6947,7 +6952,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36495</v>
       </c>
@@ -6973,7 +6978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>55</v>
@@ -6993,7 +6998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>119</v>
@@ -7015,7 +7020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>78</v>
       </c>
@@ -7037,7 +7042,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>36526</v>
       </c>
@@ -7061,7 +7066,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36557</v>
       </c>
@@ -7085,7 +7090,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>36586</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>36617</v>
       </c>
@@ -7135,7 +7140,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36647</v>
       </c>
@@ -7159,7 +7164,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -7179,7 +7184,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>36678</v>
       </c>
@@ -7199,7 +7204,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>36708</v>
       </c>
@@ -7223,7 +7228,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36739</v>
       </c>
@@ -7247,7 +7252,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>36770</v>
       </c>
@@ -7267,7 +7272,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>36800</v>
       </c>
@@ -7291,7 +7296,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>36831</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>46</v>
@@ -7339,7 +7344,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>133</v>
@@ -7361,7 +7366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>46</v>
@@ -7383,7 +7388,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>36861</v>
       </c>
@@ -7407,7 +7412,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>137</v>
       </c>
@@ -7425,7 +7430,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>36892</v>
       </c>
@@ -7449,7 +7454,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>36923</v>
       </c>
@@ -7473,7 +7478,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>36951</v>
       </c>
@@ -7493,7 +7498,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>36982</v>
       </c>
@@ -7517,7 +7522,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37012</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>145</v>
@@ -7563,7 +7568,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37043</v>
       </c>
@@ -7585,7 +7590,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37073</v>
       </c>
@@ -7609,7 +7614,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>146</v>
@@ -7629,7 +7634,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37104</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>145</v>
@@ -7675,7 +7680,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37135</v>
       </c>
@@ -7699,7 +7704,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37165</v>
       </c>
@@ -7729,7 +7734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37196</v>
       </c>
@@ -7755,7 +7760,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>55</v>
@@ -7777,7 +7782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>150</v>
@@ -7799,7 +7804,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37226</v>
       </c>
@@ -7823,7 +7828,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
         <v>138</v>
       </c>
@@ -7841,7 +7846,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>37257</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37288</v>
       </c>
@@ -7893,7 +7898,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37316</v>
       </c>
@@ -7917,7 +7922,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37347</v>
       </c>
@@ -7943,7 +7948,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>46</v>
@@ -7965,7 +7970,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>46</v>
@@ -7987,7 +7992,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>160</v>
@@ -8007,7 +8012,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37377</v>
       </c>
@@ -8033,7 +8038,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>165</v>
@@ -8055,7 +8060,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>165</v>
@@ -8077,7 +8082,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>166</v>
@@ -8097,7 +8102,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37408</v>
       </c>
@@ -8117,7 +8122,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37438</v>
       </c>
@@ -8137,7 +8142,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37469</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>168</v>
@@ -8183,7 +8188,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37500</v>
       </c>
@@ -8209,7 +8214,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -8227,7 +8232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37530</v>
       </c>
@@ -8247,7 +8252,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8271,7 +8276,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8295,7 +8300,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>139</v>
       </c>
@@ -8317,7 +8322,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>37622</v>
       </c>
@@ -8341,7 +8346,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37653</v>
       </c>
@@ -8367,7 +8372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>165</v>
@@ -8389,7 +8394,7 @@
         <v>37678</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -8409,7 +8414,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37681</v>
       </c>
@@ -8429,7 +8434,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37712</v>
       </c>
@@ -8451,7 +8456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37742</v>
       </c>
@@ -8477,7 +8482,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>48</v>
@@ -8499,7 +8504,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37773</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>37803</v>
       </c>
@@ -8549,7 +8554,7 @@
         <v>37805</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>181</v>
@@ -8569,7 +8574,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="50"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37834</v>
       </c>
@@ -8595,7 +8600,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>225</v>
@@ -8615,7 +8620,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>225</v>
@@ -8635,7 +8640,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37865</v>
       </c>
@@ -8661,7 +8666,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>147</v>
@@ -8681,7 +8686,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>37895</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>186</v>
@@ -8727,7 +8732,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>37926</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>186</v>
@@ -8773,7 +8778,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="50"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>37956</v>
       </c>
@@ -8797,7 +8802,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="48" t="s">
         <v>175</v>
       </c>
@@ -8819,7 +8824,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>37987</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>188</v>
@@ -8865,7 +8870,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38018</v>
       </c>
@@ -8889,7 +8894,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38047</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38078</v>
       </c>
@@ -8939,7 +8944,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38108</v>
       </c>
@@ -8963,7 +8968,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38139</v>
       </c>
@@ -8987,7 +8992,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38169</v>
       </c>
@@ -9011,7 +9016,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38200</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>196</v>
@@ -9059,7 +9064,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38231</v>
       </c>
@@ -9083,7 +9088,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>38261</v>
       </c>
@@ -9109,7 +9114,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>199</v>
@@ -9129,7 +9134,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>38292</v>
       </c>
@@ -9153,7 +9158,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>38322</v>
       </c>
@@ -9177,7 +9182,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>176</v>
       </c>
@@ -9199,7 +9204,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>204</v>
@@ -9245,7 +9250,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38384</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38412</v>
       </c>
@@ -9297,7 +9302,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>159</v>
@@ -9317,7 +9322,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>38443</v>
       </c>
@@ -9343,7 +9348,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>60</v>
@@ -9365,7 +9370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>210</v>
@@ -9385,7 +9390,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38473</v>
       </c>
@@ -9409,7 +9414,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>38504</v>
       </c>
@@ -9435,7 +9440,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>213</v>
@@ -9455,7 +9460,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38534</v>
       </c>
@@ -9479,7 +9484,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>38565</v>
       </c>
@@ -9505,7 +9510,7 @@
         <v>38589</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>215</v>
@@ -9525,7 +9530,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>38596</v>
       </c>
@@ -9549,7 +9554,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>38626</v>
       </c>
@@ -9573,7 +9578,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38657</v>
       </c>
@@ -9599,7 +9604,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>218</v>
@@ -9619,7 +9624,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38687</v>
       </c>
@@ -9643,7 +9648,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
         <v>177</v>
       </c>
@@ -9665,7 +9670,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38718</v>
       </c>
@@ -9689,7 +9694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>140</v>
@@ -9709,7 +9714,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38749</v>
       </c>
@@ -9733,7 +9738,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38777</v>
       </c>
@@ -9759,7 +9764,7 @@
         <v>38789</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>227</v>
@@ -9779,7 +9784,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="50"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>38808</v>
       </c>
@@ -9805,7 +9810,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>228</v>
@@ -9825,7 +9830,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38838</v>
       </c>
@@ -9849,7 +9854,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>230</v>
@@ -9871,7 +9876,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>38869</v>
       </c>
@@ -9897,7 +9902,7 @@
         <v>38881</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>233</v>
@@ -9917,7 +9922,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="50"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>38899</v>
       </c>
@@ -9941,7 +9946,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>38930</v>
       </c>
@@ -9967,7 +9972,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>235</v>
@@ -9987,7 +9992,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>38961</v>
       </c>
@@ -10011,7 +10016,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>38991</v>
       </c>
@@ -10035,7 +10040,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>39022</v>
       </c>
@@ -10059,7 +10064,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39052</v>
       </c>
@@ -10085,7 +10090,7 @@
         <v>39057</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>239</v>
@@ -10105,7 +10110,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>220</v>
       </c>
@@ -10127,7 +10132,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39083</v>
       </c>
@@ -10151,7 +10156,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>240</v>
@@ -10171,7 +10176,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39114</v>
       </c>
@@ -10195,7 +10200,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>39142</v>
       </c>
@@ -10219,7 +10224,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39173</v>
       </c>
@@ -10243,7 +10248,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39203</v>
       </c>
@@ -10267,7 +10272,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39234</v>
       </c>
@@ -10291,7 +10296,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>39264</v>
       </c>
@@ -10317,7 +10322,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>246</v>
@@ -10335,7 +10340,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39295</v>
       </c>
@@ -10359,7 +10364,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39326</v>
       </c>
@@ -10383,7 +10388,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39356</v>
       </c>
@@ -10409,7 +10414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>225</v>
@@ -10429,7 +10434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>249</v>
@@ -10449,7 +10454,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>39387</v>
       </c>
@@ -10473,7 +10478,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39417</v>
       </c>
@@ -10497,7 +10502,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="48" t="s">
         <v>221</v>
       </c>
@@ -10519,7 +10524,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>39448</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>255</v>
@@ -10565,7 +10570,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39479</v>
       </c>
@@ -10589,7 +10594,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>39508</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>258</v>
@@ -10635,7 +10640,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39539</v>
       </c>
@@ -10659,7 +10664,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39569</v>
       </c>
@@ -10685,7 +10690,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>260</v>
@@ -10705,7 +10710,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -10729,7 +10734,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>39630</v>
       </c>
@@ -10753,7 +10758,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39661</v>
       </c>
@@ -10777,7 +10782,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39692</v>
       </c>
@@ -10801,7 +10806,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39722</v>
       </c>
@@ -10825,7 +10830,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39753</v>
       </c>
@@ -10849,7 +10854,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39783</v>
       </c>
@@ -10873,7 +10878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>267</v>
@@ -10893,7 +10898,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>268</v>
@@ -10913,7 +10918,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>222</v>
       </c>
@@ -10935,7 +10940,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39814</v>
       </c>
@@ -10961,7 +10966,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39845</v>
       </c>
@@ -10987,7 +10992,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>39873</v>
       </c>
@@ -11009,7 +11014,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>149</v>
@@ -11031,7 +11036,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39904</v>
       </c>
@@ -11057,7 +11062,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39934</v>
       </c>
@@ -11081,7 +11086,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39965</v>
       </c>
@@ -11105,7 +11110,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39995</v>
       </c>
@@ -11129,7 +11134,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>40026</v>
       </c>
@@ -11155,7 +11160,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40057</v>
       </c>
@@ -11179,7 +11184,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>278</v>
@@ -11199,7 +11204,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>40087</v>
       </c>
@@ -11225,7 +11230,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40118</v>
       </c>
@@ -11249,7 +11254,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>282</v>
@@ -11269,7 +11274,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40148</v>
       </c>
@@ -11293,7 +11298,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>223</v>
       </c>
@@ -11315,7 +11320,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40179</v>
       </c>
@@ -11339,7 +11344,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>40210</v>
       </c>
@@ -11363,7 +11368,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40238</v>
       </c>
@@ -11391,7 +11396,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40269</v>
       </c>
@@ -11415,7 +11420,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40299</v>
       </c>
@@ -11441,7 +11446,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>288</v>
@@ -11461,7 +11466,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40330</v>
       </c>
@@ -11489,7 +11494,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40360</v>
       </c>
@@ -11517,7 +11522,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40391</v>
       </c>
@@ -11541,7 +11546,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40422</v>
       </c>
@@ -11563,7 +11568,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40452</v>
       </c>
@@ -11587,7 +11592,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40483</v>
       </c>
@@ -11615,7 +11620,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40513</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>66</v>
@@ -11663,7 +11668,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>186</v>
@@ -11683,7 +11688,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>224</v>
       </c>
@@ -11705,7 +11710,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11729,7 +11734,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40575</v>
       </c>
@@ -11753,7 +11758,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>40603</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>225</v>
@@ -11799,7 +11804,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>305</v>
@@ -11821,7 +11826,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40634</v>
       </c>
@@ -11847,7 +11852,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>172</v>
@@ -11867,7 +11872,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>40664</v>
       </c>
@@ -11891,7 +11896,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40695</v>
       </c>
@@ -11919,7 +11924,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40725</v>
       </c>
@@ -11943,7 +11948,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40756</v>
       </c>
@@ -11967,7 +11972,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40787</v>
       </c>
@@ -11993,7 +11998,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40817</v>
       </c>
@@ -12017,7 +12022,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40848</v>
       </c>
@@ -12041,7 +12046,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>292</v>
@@ -12061,7 +12066,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>40878</v>
       </c>
@@ -12087,7 +12092,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>310</v>
@@ -12111,7 +12116,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>299</v>
       </c>
@@ -12133,7 +12138,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>40909</v>
       </c>
@@ -12157,7 +12162,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40940</v>
       </c>
@@ -12181,7 +12186,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40969</v>
       </c>
@@ -12205,7 +12210,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41000</v>
       </c>
@@ -12229,7 +12234,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>41030</v>
       </c>
@@ -12253,7 +12258,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41061</v>
       </c>
@@ -12277,7 +12282,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>41091</v>
       </c>
@@ -12307,7 +12312,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>149</v>
@@ -12325,12 +12330,12 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.125</v>
+        <v>267.875</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41122</v>
       </c>
@@ -12354,7 +12359,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41153</v>
       </c>
@@ -12378,7 +12383,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41183</v>
       </c>
@@ -12404,7 +12409,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>41214</v>
       </c>
@@ -12428,7 +12433,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>320</v>
@@ -12448,7 +12453,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>325</v>
@@ -12468,7 +12473,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41244</v>
       </c>
@@ -12492,7 +12497,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>254</v>
@@ -12514,7 +12519,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>321</v>
@@ -12534,7 +12539,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>300</v>
       </c>
@@ -12556,7 +12561,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41275</v>
       </c>
@@ -12580,7 +12585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>142</v>
@@ -12600,7 +12605,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41306</v>
       </c>
@@ -12624,7 +12629,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>148</v>
@@ -12644,7 +12649,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41334</v>
       </c>
@@ -12668,7 +12673,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41365</v>
       </c>
@@ -12694,7 +12699,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>329</v>
@@ -12714,7 +12719,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="49"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41395</v>
       </c>
@@ -12740,7 +12745,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>48</v>
@@ -12762,7 +12767,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>332</v>
@@ -12782,7 +12787,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41426</v>
       </c>
@@ -12806,7 +12811,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41456</v>
       </c>
@@ -12832,7 +12837,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>149</v>
@@ -12852,7 +12857,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41487</v>
       </c>
@@ -12876,7 +12881,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41518</v>
       </c>
@@ -12902,7 +12907,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>335</v>
@@ -12922,7 +12927,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41548</v>
       </c>
@@ -12946,7 +12951,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41579</v>
       </c>
@@ -12970,7 +12975,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>336</v>
@@ -12990,7 +12995,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41609</v>
       </c>
@@ -13016,7 +13021,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>337</v>
@@ -13036,7 +13041,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>301</v>
       </c>
@@ -13058,7 +13063,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41640</v>
       </c>
@@ -13082,7 +13087,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41671</v>
       </c>
@@ -13106,7 +13111,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41699</v>
       </c>
@@ -13132,7 +13137,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>342</v>
@@ -13152,7 +13157,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41730</v>
       </c>
@@ -13178,7 +13183,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>345</v>
@@ -13198,7 +13203,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41760</v>
       </c>
@@ -13224,7 +13229,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>346</v>
@@ -13244,7 +13249,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41791</v>
       </c>
@@ -13268,7 +13273,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41821</v>
       </c>
@@ -13292,7 +13297,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41852</v>
       </c>
@@ -13316,7 +13321,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41883</v>
       </c>
@@ -13340,7 +13345,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41913</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13388,7 +13393,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>350</v>
@@ -13408,7 +13413,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41944</v>
       </c>
@@ -13432,7 +13437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>351</v>
@@ -13452,7 +13457,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41974</v>
       </c>
@@ -13476,7 +13481,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>352</v>
@@ -13496,7 +13501,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="48" t="s">
         <v>302</v>
       </c>
@@ -13518,7 +13523,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42005</v>
       </c>
@@ -13544,7 +13549,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>60</v>
@@ -13566,7 +13571,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>267</v>
@@ -13586,7 +13591,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>354</v>
@@ -13606,7 +13611,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42036</v>
       </c>
@@ -13630,7 +13635,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>42064</v>
       </c>
@@ -13656,7 +13661,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>48</v>
@@ -13678,7 +13683,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>364</v>
@@ -13698,7 +13703,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42095</v>
       </c>
@@ -13722,7 +13727,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42125</v>
       </c>
@@ -13746,7 +13751,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42156</v>
       </c>
@@ -13772,7 +13777,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>367</v>
@@ -13792,7 +13797,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42186</v>
       </c>
@@ -13816,7 +13821,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42217</v>
       </c>
@@ -13842,7 +13847,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>48</v>
@@ -13864,7 +13869,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>369</v>
@@ -13884,7 +13889,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42248</v>
       </c>
@@ -13910,7 +13915,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>370</v>
@@ -13930,7 +13935,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42278</v>
       </c>
@@ -13954,7 +13959,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42309</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>66</v>
@@ -14002,7 +14007,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>225</v>
@@ -14022,7 +14027,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>187</v>
@@ -14044,7 +14049,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>187</v>
@@ -14066,7 +14071,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>226</v>
@@ -14086,7 +14091,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>42339</v>
       </c>
@@ -14110,7 +14115,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="48" t="s">
         <v>357</v>
       </c>
@@ -14132,7 +14137,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42370</v>
       </c>
@@ -14156,7 +14161,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42401</v>
       </c>
@@ -14180,7 +14185,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>66</v>
@@ -14202,7 +14207,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>42430</v>
       </c>
@@ -14228,7 +14233,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42461</v>
       </c>
@@ -14248,7 +14253,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42491</v>
       </c>
@@ -14268,7 +14273,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42522</v>
       </c>
@@ -14288,7 +14293,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42552</v>
       </c>
@@ -14308,7 +14313,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42583</v>
       </c>
@@ -14334,7 +14339,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42614</v>
       </c>
@@ -14354,7 +14359,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42644</v>
       </c>
@@ -14374,7 +14379,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42675</v>
       </c>
@@ -14394,7 +14399,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42705</v>
       </c>
@@ -14420,7 +14425,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>358</v>
       </c>
@@ -14442,7 +14447,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42736</v>
       </c>
@@ -14468,7 +14473,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42767</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>225</v>
@@ -14512,7 +14517,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42795</v>
       </c>
@@ -14532,7 +14537,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42826</v>
       </c>
@@ -14554,7 +14559,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42856</v>
       </c>
@@ -14574,7 +14579,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42887</v>
       </c>
@@ -14594,7 +14599,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42917</v>
       </c>
@@ -14614,7 +14619,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -14640,7 +14645,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -14660,7 +14665,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43009</v>
       </c>
@@ -14684,7 +14689,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -14708,7 +14713,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -14734,7 +14739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>320</v>
@@ -14754,7 +14759,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>359</v>
       </c>
@@ -14776,7 +14781,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43101</v>
       </c>
@@ -14802,7 +14807,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>225</v>
@@ -14820,7 +14825,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43132</v>
       </c>
@@ -14844,7 +14849,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>66</v>
@@ -14866,7 +14871,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43160</v>
       </c>
@@ -14886,7 +14891,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43191</v>
       </c>
@@ -14912,7 +14917,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43221</v>
       </c>
@@ -14936,7 +14941,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>66</v>
@@ -14958,7 +14963,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>55</v>
@@ -14980,7 +14985,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>388</v>
@@ -15002,7 +15007,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -15026,7 +15031,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -15052,7 +15057,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>150</v>
@@ -15072,7 +15077,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -15098,7 +15103,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>273</v>
@@ -15118,7 +15123,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="49"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43344</v>
       </c>
@@ -15144,7 +15149,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>399</v>
@@ -15164,7 +15169,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43374</v>
       </c>
@@ -15190,7 +15195,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>130</v>
@@ -15210,7 +15215,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43405</v>
       </c>
@@ -15236,7 +15241,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>400</v>
@@ -15256,7 +15261,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -15282,7 +15287,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>383</v>
@@ -15304,7 +15309,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>347</v>
@@ -15324,7 +15329,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="48" t="s">
         <v>360</v>
       </c>
@@ -15346,7 +15351,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43466</v>
       </c>
@@ -15366,7 +15371,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43497</v>
       </c>
@@ -15390,7 +15395,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>66</v>
@@ -15410,7 +15415,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15430,7 +15435,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15456,7 +15461,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43586</v>
       </c>
@@ -15482,7 +15487,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43617</v>
       </c>
@@ -15508,7 +15513,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43647</v>
       </c>
@@ -15534,7 +15539,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43678</v>
       </c>
@@ -15554,7 +15559,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43709</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43739</v>
       </c>
@@ -15606,7 +15611,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43770</v>
       </c>
@@ -15632,7 +15637,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>407</v>
@@ -15654,7 +15659,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>60</v>
@@ -15676,7 +15681,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43800</v>
       </c>
@@ -15696,7 +15701,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="48" t="s">
         <v>361</v>
       </c>
@@ -15718,7 +15723,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43831</v>
       </c>
@@ -15742,7 +15747,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43862</v>
       </c>
@@ -15762,7 +15767,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43891</v>
       </c>
@@ -15782,7 +15787,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43922</v>
       </c>
@@ -15802,7 +15807,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43952</v>
       </c>
@@ -15822,7 +15827,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43983</v>
       </c>
@@ -15842,7 +15847,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44013</v>
       </c>
@@ -15868,7 +15873,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44044</v>
       </c>
@@ -15888,7 +15893,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44075</v>
       </c>
@@ -15908,7 +15913,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44105</v>
       </c>
@@ -15928,7 +15933,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44136</v>
       </c>
@@ -15948,7 +15953,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44166</v>
       </c>
@@ -15974,7 +15979,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
         <v>362</v>
       </c>
@@ -15996,7 +16001,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44197</v>
       </c>
@@ -16016,7 +16021,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44228</v>
       </c>
@@ -16036,7 +16041,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44256</v>
       </c>
@@ -16056,7 +16061,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44287</v>
       </c>
@@ -16076,7 +16081,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44317</v>
       </c>
@@ -16096,7 +16101,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44348</v>
       </c>
@@ -16116,7 +16121,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44378</v>
       </c>
@@ -16136,7 +16141,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44409</v>
       </c>
@@ -16156,7 +16161,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44440</v>
       </c>
@@ -16176,7 +16181,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44470</v>
       </c>
@@ -16200,7 +16205,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44501</v>
       </c>
@@ -16220,7 +16225,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44531</v>
       </c>
@@ -16246,7 +16251,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="48" t="s">
         <v>398</v>
       </c>
@@ -16268,7 +16273,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44562</v>
       </c>
@@ -16288,7 +16293,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44593</v>
       </c>
@@ -16308,7 +16313,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -16328,7 +16333,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44652</v>
       </c>
@@ -16348,7 +16353,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44682</v>
       </c>
@@ -16368,7 +16373,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44713</v>
       </c>
@@ -16388,7 +16393,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44743</v>
       </c>
@@ -16412,7 +16417,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44774</v>
       </c>
@@ -16432,7 +16437,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44805</v>
       </c>
@@ -16452,7 +16457,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44835</v>
       </c>
@@ -16472,7 +16477,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44866</v>
       </c>
@@ -16498,7 +16503,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44896</v>
       </c>
@@ -16524,7 +16529,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="48" t="s">
         <v>423</v>
       </c>
@@ -16542,7 +16547,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44927</v>
       </c>
@@ -16562,7 +16567,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44958</v>
       </c>
@@ -16582,7 +16587,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44986</v>
       </c>
@@ -16608,20 +16613,22 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45017</v>
       </c>
       <c r="B551" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C551" s="13"/>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H551" s="39">
         <v>3</v>
@@ -16632,47 +16639,53 @@
         <v>428</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45047</v>
       </c>
       <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45078</v>
       </c>
       <c r="B553" s="20"/>
-      <c r="C553" s="13"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45108</v>
       </c>
-      <c r="B554" s="20"/>
+      <c r="B554" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
       <c r="E554" s="9"/>
@@ -16681,16 +16694,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H554" s="39"/>
+      <c r="H554" s="39">
+        <v>3</v>
+      </c>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B555" s="20"/>
+      <c r="K554" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="40"/>
+      <c r="B555" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
       <c r="E555" s="9"/>
@@ -16702,11 +16719,13 @@
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
-    </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K555" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16722,9 +16741,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16740,9 +16759,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16758,9 +16777,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16776,9 +16795,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16794,9 +16813,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16812,9 +16831,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16830,9 +16849,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16848,9 +16867,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16866,9 +16885,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16884,9 +16903,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16902,9 +16921,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16920,9 +16939,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16938,9 +16957,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16956,9 +16975,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16974,9 +16993,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16992,9 +17011,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17010,9 +17029,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17028,9 +17047,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17046,9 +17065,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17064,9 +17083,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17082,8 +17101,10 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="40"/>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="40">
+        <v>45778</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -17098,7 +17119,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17114,7 +17135,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17130,7 +17151,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17146,7 +17167,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17162,7 +17183,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17178,7 +17199,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17194,7 +17215,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17210,7 +17231,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17226,7 +17247,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17242,7 +17263,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17258,7 +17279,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17274,7 +17295,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17290,7 +17311,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17306,7 +17327,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17322,7 +17343,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17338,7 +17359,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17354,7 +17375,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17370,7 +17391,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17386,7 +17407,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17402,7 +17423,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17418,7 +17439,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17434,7 +17455,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17450,21 +17471,37 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A600" s="41"/>
-      <c r="B600" s="15"/>
-      <c r="C600" s="42"/>
-      <c r="D600" s="43"/>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="40"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="39"/>
       <c r="E600" s="9"/>
-      <c r="F600" s="15"/>
-      <c r="G600" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H600" s="43"/>
+      <c r="F600" s="20"/>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H600" s="39"/>
       <c r="I600" s="9"/>
-      <c r="J600" s="12"/>
-      <c r="K600" s="15"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="20"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="41"/>
+      <c r="B601" s="15"/>
+      <c r="C601" s="42"/>
+      <c r="D601" s="43"/>
+      <c r="E601" s="9"/>
+      <c r="F601" s="15"/>
+      <c r="G601" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H601" s="43"/>
+      <c r="I601" s="9"/>
+      <c r="J601" s="12"/>
+      <c r="K601" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17481,10 +17518,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17507,7 +17544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17515,21 +17552,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -17542,7 +17579,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17571,7 +17608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17597,17 +17634,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>429</v>
       </c>
@@ -17631,10 +17668,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>395.70400000000001</v>
+        <v>400.20400000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -17662,7 +17699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17688,7 +17725,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17714,7 +17751,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17740,7 +17777,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17766,7 +17803,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17792,7 +17829,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17818,7 +17855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17844,7 +17881,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17864,7 +17901,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17884,7 +17921,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17904,7 +17941,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17925,7 +17962,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17946,7 +17983,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17967,7 +18004,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17988,7 +18025,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18009,7 +18046,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18030,7 +18067,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18051,7 +18088,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18072,7 +18109,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18093,7 +18130,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18114,7 +18151,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18135,7 +18172,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18156,7 +18193,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18177,7 +18214,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18198,7 +18235,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18219,7 +18256,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18240,7 +18277,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18261,7 +18298,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18282,7 +18319,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18303,7 +18340,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18324,7 +18361,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18333,7 +18370,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18342,7 +18379,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18351,7 +18388,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18360,7 +18397,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18369,7 +18406,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18378,7 +18415,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18387,7 +18424,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18396,7 +18433,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18405,7 +18442,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18414,7 +18451,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18423,7 +18460,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18432,7 +18469,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18441,7 +18478,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18450,7 +18487,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18459,7 +18496,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18468,7 +18505,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18477,7 +18514,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18486,7 +18523,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18495,7 +18532,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18504,7 +18541,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18513,7 +18550,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18522,7 +18559,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18531,7 +18568,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18540,7 +18577,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18549,7 +18586,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18558,7 +18595,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18567,7 +18604,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18576,7 +18613,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18585,7 +18622,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/FERMA, ARCELI.xlsx
+++ b/REGULAR/FERMA, ARCELI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="433">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1330,6 +1330,9 @@
   </si>
   <si>
     <t>7/6,10/2023</t>
+  </si>
+  <si>
+    <t>7/12,13,20/2023</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3144,7 +3147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,7 +3453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3607,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3670,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K601" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K602" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4111,12 +4114,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K601"/>
+  <dimension ref="A2:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4035" topLeftCell="A545" activePane="bottomLeft"/>
+      <pane ySplit="4035" topLeftCell="A548" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="G556" sqref="G556"/>
+      <selection pane="bottomLeft" activeCell="I556" sqref="I556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,7 +4292,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.875</v>
+        <v>264.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12330,7 +12333,7 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.875</v>
+        <v>264.875</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
@@ -16724,10 +16727,10 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B556" s="20"/>
+      <c r="A556" s="40"/>
+      <c r="B556" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
@@ -16736,14 +16739,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H556" s="39"/>
+      <c r="H556" s="39">
+        <v>3</v>
+      </c>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20"/>
+      <c r="K556" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16761,7 +16768,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16779,7 +16786,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16797,7 +16804,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16815,7 +16822,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16833,7 +16840,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16851,7 +16858,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16869,7 +16876,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16887,7 +16894,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16905,7 +16912,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16923,7 +16930,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16941,7 +16948,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16959,7 +16966,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16977,7 +16984,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16995,7 +17002,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17013,7 +17020,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17031,7 +17038,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17049,7 +17056,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17067,7 +17074,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17085,7 +17092,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17103,7 +17110,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17120,7 +17127,9 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>45778</v>
+      </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
@@ -17488,20 +17497,36 @@
       <c r="K600" s="20"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="41"/>
-      <c r="B601" s="15"/>
-      <c r="C601" s="42"/>
-      <c r="D601" s="43"/>
+      <c r="A601" s="40"/>
+      <c r="B601" s="20"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="39"/>
       <c r="E601" s="9"/>
-      <c r="F601" s="15"/>
-      <c r="G601" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H601" s="43"/>
+      <c r="F601" s="20"/>
+      <c r="G601" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H601" s="39"/>
       <c r="I601" s="9"/>
-      <c r="J601" s="12"/>
-      <c r="K601" s="15"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="41"/>
+      <c r="B602" s="15"/>
+      <c r="C602" s="42"/>
+      <c r="D602" s="43"/>
+      <c r="E602" s="9"/>
+      <c r="F602" s="15"/>
+      <c r="G602" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H602" s="43"/>
+      <c r="I602" s="9"/>
+      <c r="J602" s="12"/>
+      <c r="K602" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17671,7 +17696,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>400.20400000000001</v>
+        <v>397.20400000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
